--- a/data/trans_orig/iP30KDA8_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/iP30KDA8_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E463229-F6CE-4460-93A5-1DF63690B6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D20C6C8F-6C5E-4D38-9E69-C808C6200E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1AAC80CB-5846-4A73-AE0D-D1B926028310}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4175F47E-DB2C-41F8-A265-F93E605FB85A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
   <si>
     <t>Menores según si toman pasta o arroz casi a diario en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,253 +65,232 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
     <t>Secundarios</t>
   </si>
   <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -726,8 +705,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A65024-1600-483B-AD21-30210CBBF14A}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C69773-D0AE-4488-80B2-BA1D8A9F8CD8}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -844,96 +823,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="D4" s="7">
+        <v>25074</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="I4" s="7">
-        <v>1171</v>
+        <v>27088</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="N4" s="7">
-        <v>1171</v>
+        <v>52162</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="D5" s="7">
+        <v>28625</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>31257</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>59881</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -942,151 +925,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="D6" s="7">
+        <v>53699</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="I6" s="7">
-        <v>1171</v>
+        <v>58345</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="N6" s="7">
-        <v>1171</v>
+        <v>112043</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>285</v>
+      </c>
+      <c r="D7" s="7">
+        <v>199276</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="7">
+        <v>283</v>
+      </c>
+      <c r="I7" s="7">
+        <v>225352</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="7">
-        <v>26494</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="7">
+      <c r="L7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="7">
-        <v>27220</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="M7" s="7">
-        <v>73</v>
+        <v>568</v>
       </c>
       <c r="N7" s="7">
-        <v>53713</v>
+        <v>424627</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>340</v>
+      </c>
+      <c r="D8" s="7">
+        <v>252556</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="7">
-        <v>29019</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>30</v>
+        <v>347</v>
       </c>
       <c r="I8" s="7">
-        <v>22934</v>
+        <v>279898</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>71</v>
+        <v>687</v>
       </c>
       <c r="N8" s="7">
-        <v>51954</v>
+        <v>532455</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1095,153 +1080,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>77</v>
+        <v>625</v>
       </c>
       <c r="D9" s="7">
-        <v>55513</v>
+        <v>451832</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>67</v>
+        <v>630</v>
       </c>
       <c r="I9" s="7">
-        <v>50154</v>
+        <v>505250</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>144</v>
+        <v>1255</v>
       </c>
       <c r="N9" s="7">
-        <v>105667</v>
+        <v>957082</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>283</v>
+        <v>83</v>
       </c>
       <c r="D10" s="7">
-        <v>222255</v>
+        <v>56322</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>285</v>
+        <v>97</v>
       </c>
       <c r="I10" s="7">
-        <v>208658</v>
+        <v>81338</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>568</v>
+        <v>180</v>
       </c>
       <c r="N10" s="7">
-        <v>430913</v>
+        <v>137659</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>347</v>
+        <v>139</v>
       </c>
       <c r="D11" s="7">
-        <v>259071</v>
+        <v>89864</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>340</v>
+        <v>136</v>
       </c>
       <c r="I11" s="7">
-        <v>232596</v>
+        <v>99801</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>687</v>
+        <v>275</v>
       </c>
       <c r="N11" s="7">
-        <v>491667</v>
+        <v>189665</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1250,153 +1235,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>630</v>
+        <v>222</v>
       </c>
       <c r="D12" s="7">
-        <v>481326</v>
+        <v>146186</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>625</v>
+        <v>233</v>
       </c>
       <c r="I12" s="7">
-        <v>441254</v>
+        <v>181139</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1255</v>
+        <v>455</v>
       </c>
       <c r="N12" s="7">
-        <v>922580</v>
+        <v>327324</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>97</v>
+        <v>405</v>
       </c>
       <c r="D13" s="7">
-        <v>78355</v>
+        <v>280672</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
-        <v>83</v>
+        <v>416</v>
       </c>
       <c r="I13" s="7">
-        <v>58058</v>
+        <v>333776</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
-        <v>180</v>
+        <v>821</v>
       </c>
       <c r="N13" s="7">
-        <v>136413</v>
+        <v>614448</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>136</v>
+        <v>509</v>
       </c>
       <c r="D14" s="7">
-        <v>94139</v>
+        <v>371045</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="H14" s="7">
-        <v>139</v>
+        <v>524</v>
       </c>
       <c r="I14" s="7">
-        <v>89972</v>
+        <v>410957</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="M14" s="7">
-        <v>275</v>
+        <v>1033</v>
       </c>
       <c r="N14" s="7">
-        <v>184111</v>
+        <v>782002</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1405,216 +1390,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>233</v>
+        <v>914</v>
       </c>
       <c r="D15" s="7">
-        <v>172494</v>
+        <v>651717</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>222</v>
+        <v>940</v>
       </c>
       <c r="I15" s="7">
-        <v>148030</v>
+        <v>744733</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>455</v>
+        <v>1854</v>
       </c>
       <c r="N15" s="7">
-        <v>320524</v>
+        <v>1396450</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>416</v>
-      </c>
-      <c r="D16" s="7">
-        <v>327104</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H16" s="7">
-        <v>406</v>
-      </c>
-      <c r="I16" s="7">
-        <v>295106</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="M16" s="7">
-        <v>822</v>
-      </c>
-      <c r="N16" s="7">
-        <v>622210</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>524</v>
-      </c>
-      <c r="D17" s="7">
-        <v>382229</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="A16" t="s">
         <v>85</v>
       </c>
-      <c r="H17" s="7">
-        <v>509</v>
-      </c>
-      <c r="I17" s="7">
-        <v>345503</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1033</v>
-      </c>
-      <c r="N17" s="7">
-        <v>727732</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>940</v>
-      </c>
-      <c r="D18" s="7">
-        <v>709333</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="7">
-        <v>915</v>
-      </c>
-      <c r="I18" s="7">
-        <v>640609</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1855</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1349942</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>92</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
